--- a/Excels/Species and Guilds.xlsx
+++ b/Excels/Species and Guilds.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usceduau-my.sharepoint.com/personal/r_r113_student_usc_edu_au/Documents/Weather Model Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Bat Data\Bat Data\BatData\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C2645E09-0AF3-4688-9538-CCAB30872574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{029975ED-57D3-4333-8AC6-1875E9D26E5B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB40F1-F523-4BA0-8170-785663AC2182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FEFB16B-07E4-4D5F-A069-245FDBFE09E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9FEFB16B-07E4-4D5F-A069-245FDBFE09E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Guilds" sheetId="3" r:id="rId1"/>
+    <sheet name="Guilds Reordered" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
   <si>
     <t>Open</t>
   </si>
@@ -94,6 +95,9 @@
   </si>
   <si>
     <t>Edge</t>
+  </si>
+  <si>
+    <t>Guilds</t>
   </si>
 </sst>
 </file>
@@ -170,30 +174,32 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -213,9 +219,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +259,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -359,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,39 +507,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111BA7EA-01B2-4376-A8A6-0875D5B693C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8963607D-D0AD-4CE2-9AB8-F9F99B12133B}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="11.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="25.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="3"/>
@@ -650,7 +653,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
         <v>12</v>
@@ -762,4 +765,180 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111BA7EA-01B2-4376-A8A6-0875D5B693C6}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>